--- a/results/TS_4/answers_part4.xlsx
+++ b/results/TS_4/answers_part4.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C2" t="n">
-        <v>1576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C3" t="n">
-        <v>1514</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C4" t="n">
-        <v>1499</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C5" t="n">
-        <v>1531</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C6" t="n">
-        <v>1421</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C7" t="n">
-        <v>1491</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C8" t="n">
-        <v>1419</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C9" t="n">
-        <v>2073</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C10" t="n">
-        <v>1402</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C11" t="n">
-        <v>2127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>2749</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>5249</v>
       </c>
       <c r="C13" t="n">
-        <v>346</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>9649</v>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>7099</v>
       </c>
       <c r="C15" t="n">
-        <v>284</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C16" t="n">
-        <v>9430</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>4299</v>
       </c>
       <c r="C17" t="n">
-        <v>353</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>3899</v>
       </c>
       <c r="C18" t="n">
-        <v>302</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>9199</v>
       </c>
       <c r="C19" t="n">
-        <v>520</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>6199</v>
       </c>
       <c r="C20" t="n">
-        <v>322</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>7499</v>
       </c>
       <c r="C21" t="n">
-        <v>378</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C22" t="n">
-        <v>1670</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C23" t="n">
-        <v>2043</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C24" t="n">
-        <v>1812</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C25" t="n">
-        <v>1678</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C26" t="n">
-        <v>2004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C27" t="n">
-        <v>3519</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C28" t="n">
-        <v>2226</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C29" t="n">
-        <v>2995</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C30" t="n">
-        <v>2213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C31" t="n">
-        <v>1400</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C32" t="n">
-        <v>2566</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C33" t="n">
-        <v>1982</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C34" t="n">
-        <v>4540</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C35" t="n">
-        <v>2265</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C36" t="n">
-        <v>1643</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C37" t="n">
-        <v>2428</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C38" t="n">
-        <v>2546</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C39" t="n">
-        <v>2270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C40" t="n">
-        <v>2105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C41" t="n">
-        <v>2349</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C42" t="n">
-        <v>2787</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C43" t="n">
-        <v>1528</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C44" t="n">
-        <v>2418</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C45" t="n">
-        <v>3441</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C46" t="n">
-        <v>2140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C47" t="n">
-        <v>2780</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C48" t="n">
-        <v>2560</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C49" t="n">
-        <v>3370</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -981,7 +981,7 @@
         <v>8349</v>
       </c>
       <c r="C50" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C51" t="n">
-        <v>4307</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
